--- a/src/excel/201610.xlsx
+++ b/src/excel/201610.xlsx
@@ -19,18 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>拉卡拉加班交通费、餐费报销明细单</t>
   </si>
   <si>
-    <t>填报日期：2016.9</t>
+    <t>填报日期：2016.10</t>
   </si>
   <si>
     <t>部门：</t>
   </si>
   <si>
-    <t>商服研发</t>
+    <t>研发中心</t>
   </si>
   <si>
     <t>报销人：</t>
@@ -69,7 +69,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>2016/10/8 20:07:22</t>
+    <t>2016/11/1 21:05:52</t>
   </si>
   <si>
     <t>天地软件园</t>
@@ -81,70 +81,61 @@
     <t>加班</t>
   </si>
   <si>
-    <t xml:space="preserve">星期6 </t>
+    <t xml:space="preserve">星期2 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月08日 </t>
+    <t xml:space="preserve">11月01日 </t>
   </si>
   <si>
-    <t>2016/10/9 20:33:33</t>
+    <t>2016/11/2 20:20:31</t>
   </si>
   <si>
-    <t>2016/10/10 20:32:11</t>
+    <t>2016/11/3 20:09:12</t>
   </si>
   <si>
-    <t>2016/10/11 21:06:36</t>
+    <t>2016/11/7 20:37:01</t>
   </si>
   <si>
-    <t>2016/10/12 20:36:18</t>
+    <t>2016/11/8 20:38:00</t>
   </si>
   <si>
-    <t>2016/10/13 20:05:49</t>
+    <t>2016/11/9 20:31:54</t>
   </si>
   <si>
-    <t>2016/10/14 20:11:30</t>
+    <t>2016/11/10 20:01:15</t>
   </si>
   <si>
-    <t>2016/10/17 21:03:35</t>
+    <t>2016/11/15 20:31:05</t>
   </si>
   <si>
-    <t>2016/10/18 20:34:49</t>
+    <t>2016/11/17 20:06:29</t>
   </si>
   <si>
-    <t>2016/10/19 20:19:09</t>
+    <t>2016/11/18 20:06:12</t>
   </si>
   <si>
-    <t>2016/10/20 20:01:10</t>
+    <t>2016/11/21 20:42:17</t>
   </si>
   <si>
-    <t>2016/10/21 21:08:26</t>
+    <t>2016/11/22 21:06:16</t>
   </si>
   <si>
-    <t>2016/10/22 20:38:37</t>
+    <t>2016/11/23 20:16:32</t>
   </si>
   <si>
-    <t>2016/10/24 21:37:10</t>
+    <t>2016/11/24 20:07:08</t>
   </si>
   <si>
-    <t>2016/10/25 20:03:00</t>
+    <t>2016/11/25 20:18:31</t>
   </si>
   <si>
-    <t>2016/10/26 20:08:34</t>
+    <t>2016/11/28 20:12:23</t>
   </si>
   <si>
-    <t>2016/10/27 20:35:37</t>
+    <t>2016/11/29 20:34:43</t>
   </si>
   <si>
-    <t>2016/10/28 18:37:45</t>
-  </si>
-  <si>
-    <t>2016/10/29 19:12:54</t>
-  </si>
-  <si>
-    <t>2016/10/30 16:51:06</t>
-  </si>
-  <si>
-    <t>2016/10/31 20:04:49</t>
+    <t>2016/11/30 20:24:56</t>
   </si>
   <si>
     <t>合计</t>
@@ -154,6 +145,9 @@
   </si>
   <si>
     <t>填报日期：2016.6</t>
+  </si>
+  <si>
+    <t>商服研发</t>
   </si>
   <si>
     <t>张小峰</t>
@@ -351,82 +345,67 @@
     <t>2016/8/31 20:20:15</t>
   </si>
   <si>
-    <t xml:space="preserve">星期0 </t>
+    <t xml:space="preserve">星期3 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月09日 </t>
+    <t xml:space="preserve">11月02日 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">星期4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11月03日 </t>
   </si>
   <si>
     <t xml:space="preserve">星期1 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月10日 </t>
+    <t xml:space="preserve">11月07日 </t>
   </si>
   <si>
-    <t xml:space="preserve">星期2 </t>
+    <t xml:space="preserve">11月08日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月11日 </t>
+    <t xml:space="preserve">11月09日 </t>
   </si>
   <si>
-    <t xml:space="preserve">星期3 </t>
+    <t xml:space="preserve">11月10日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月12日 </t>
+    <t xml:space="preserve">11月15日 </t>
   </si>
   <si>
-    <t xml:space="preserve">星期4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10月13日 </t>
+    <t xml:space="preserve">11月17日 </t>
   </si>
   <si>
     <t xml:space="preserve">星期5 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月14日 </t>
+    <t xml:space="preserve">11月18日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月17日 </t>
+    <t xml:space="preserve">11月21日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月18日 </t>
+    <t xml:space="preserve">11月22日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月19日 </t>
+    <t xml:space="preserve">11月23日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月20日 </t>
+    <t xml:space="preserve">11月24日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月21日 </t>
+    <t xml:space="preserve">11月25日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月22日 </t>
+    <t xml:space="preserve">11月28日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月24日 </t>
+    <t xml:space="preserve">11月29日 </t>
   </si>
   <si>
-    <t xml:space="preserve">10月25日 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10月26日 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10月27日 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10月28日 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10月29日 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10月30日 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10月31日 </t>
+    <t xml:space="preserve">11月30日 </t>
   </si>
 </sst>
 </file>
@@ -434,15 +413,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="0.0_ " numFmtId="165"/>
-    <numFmt formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0" numFmtId="166"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
-    <numFmt formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00" numFmtId="168"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="169"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="170"/>
-    <numFmt formatCode="0_ " numFmtId="171"/>
-    <numFmt formatCode="0.0_);[Red]\(0.0\)" numFmtId="172"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="0.0_ " numFmtId="167"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="168"/>
+    <numFmt formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0" numFmtId="169"/>
+    <numFmt formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00" numFmtId="170"/>
+    <numFmt formatCode="0.0_);[Red]\(0.0\)" numFmtId="171"/>
+    <numFmt formatCode="0_ " numFmtId="172"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -486,46 +465,7 @@
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
-      <color indexed="52"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
       <color indexed="56"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="62"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="56"/>
-      <sz val="13"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="10"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="20"/>
       <sz val="11"/>
     </font>
     <font>
@@ -538,28 +478,7 @@
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
-      <color indexed="56"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <i val="1"/>
-      <color indexed="23"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <sz val="11"/>
     </font>
     <font>
@@ -572,8 +491,46 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color indexed="20"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
       <color indexed="63"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i val="1"/>
+      <color indexed="23"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="62"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="17"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="60"/>
       <sz val="11"/>
     </font>
     <font>
@@ -592,13 +549,35 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color indexed="17"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color indexed="9"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color indexed="60"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="10"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -623,25 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,13 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +650,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,25 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,31 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,16 +828,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,26 +848,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,6 +888,30 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,19 +989,19 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1031,7 +1010,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1040,10 +1019,10 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1052,22 +1031,22 @@
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1076,10 +1055,10 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1091,7 +1070,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1106,10 +1085,10 @@
     <xf applyAlignment="1" borderId="3" fillId="3" fontId="1" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1121,7 +1100,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1130,71 +1109,71 @@
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,10 +1494,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:IV26"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C4" sqref="C4:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2116,7 +2095,7 @@
       <c r="J4" s="27" t="n"/>
       <c r="K4" s="27" t="n"/>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
@@ -2154,13 +2133,13 @@
       <c r="J5" s="27" t="n"/>
       <c r="K5" s="27" t="n"/>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="6" s="59" spans="1:256">
@@ -2192,13 +2171,13 @@
       <c r="J6" s="63" t="n"/>
       <c r="K6" s="27" t="n"/>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="7" s="59" spans="1:256">
@@ -2230,13 +2209,13 @@
       <c r="J7" s="27" t="n"/>
       <c r="K7" s="27" t="n"/>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="8" s="59" spans="1:256">
@@ -2271,10 +2250,10 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="9" s="4" spans="1:256">
@@ -2306,13 +2285,13 @@
       <c r="J9" s="27" t="n"/>
       <c r="K9" s="27" t="n"/>
       <c r="L9" s="6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O9" s="6" t="n"/>
       <c r="P9" s="6" t="n"/>
@@ -2589,10 +2568,10 @@
         <v>2</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O10" s="6" t="n"/>
       <c r="P10" s="6" t="n"/>
@@ -2866,13 +2845,13 @@
       <c r="J11" s="27" t="n"/>
       <c r="K11" s="27" t="n"/>
       <c r="L11" s="6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O11" s="6" t="n"/>
       <c r="P11" s="6" t="n"/>
@@ -3146,13 +3125,13 @@
       <c r="J12" s="27" t="n"/>
       <c r="K12" s="27" t="n"/>
       <c r="L12" s="6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O12" s="6" t="n"/>
       <c r="P12" s="6" t="n"/>
@@ -3429,10 +3408,10 @@
         <v>2</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O13" s="6" t="n"/>
       <c r="P13" s="6" t="n"/>
@@ -3706,13 +3685,13 @@
       <c r="J14" s="27" t="n"/>
       <c r="K14" s="27" t="n"/>
       <c r="L14" s="6" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O14" s="6" t="n"/>
       <c r="P14" s="6" t="n"/>
@@ -3989,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O15" s="6" t="n"/>
       <c r="P15" s="6" t="n"/>
@@ -4266,13 +4245,13 @@
       <c r="J16" s="27" t="n"/>
       <c r="K16" s="27" t="n"/>
       <c r="L16" s="6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O16" s="6" t="n"/>
       <c r="P16" s="6" t="n"/>
@@ -4546,13 +4525,13 @@
       <c r="J17" s="27" t="n"/>
       <c r="K17" s="27" t="n"/>
       <c r="L17" s="6" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O17" s="6" t="n"/>
       <c r="P17" s="6" t="n"/>
@@ -4829,10 +4808,10 @@
         <v>2</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O18" s="6" t="n"/>
       <c r="P18" s="6" t="n"/>
@@ -5109,10 +5088,10 @@
         <v>2</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O19" s="6" t="n"/>
       <c r="P19" s="6" t="n"/>
@@ -5389,10 +5368,10 @@
         <v>2.5</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O20" s="6" t="n"/>
       <c r="P20" s="6" t="n"/>
@@ -5666,13 +5645,13 @@
       <c r="J21" s="27" t="n"/>
       <c r="K21" s="27" t="n"/>
       <c r="L21" s="6" t="n">
-        <v>24.5</v>
+        <v>2</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O21" s="6" t="n"/>
       <c r="P21" s="6" t="n"/>
@@ -5917,43 +5896,21 @@
       <c r="IU21" s="6" t="n"/>
       <c r="IV21" s="6" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="22" s="4" spans="1:256">
-      <c r="A22" s="49" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" s="38" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>19</v>
-      </c>
+    <row customFormat="1" customHeight="1" ht="14.25" r="22" s="4" spans="1:256">
+      <c r="A22" s="49" t="n"/>
+      <c r="B22" s="41" t="n"/>
+      <c r="C22" s="42" t="n"/>
+      <c r="D22" s="49" t="n"/>
+      <c r="E22" s="49" t="n"/>
+      <c r="F22" s="43" t="n"/>
       <c r="G22" s="61" t="n"/>
-      <c r="H22" s="61" t="n">
-        <v>30</v>
-      </c>
-      <c r="I22" s="62" t="n">
-        <v>2</v>
-      </c>
+      <c r="H22" s="64" t="n"/>
+      <c r="I22" s="65" t="n"/>
       <c r="J22" s="27" t="n"/>
       <c r="K22" s="27" t="n"/>
-      <c r="L22" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="L22" s="6" t="n"/>
+      <c r="M22" s="6" t="n"/>
+      <c r="N22" s="6" t="n"/>
       <c r="O22" s="6" t="n"/>
       <c r="P22" s="6" t="n"/>
       <c r="Q22" s="6" t="n"/>
@@ -6197,43 +6154,30 @@
       <c r="IU22" s="6" t="n"/>
       <c r="IV22" s="6" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="23" s="4" spans="1:256">
-      <c r="A23" s="49" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" s="38" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C23" s="39" t="s">
+    <row customFormat="1" customHeight="1" ht="14.25" r="23" s="4" spans="1:256">
+      <c r="A23" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="61" t="n"/>
-      <c r="H23" s="61" t="n">
-        <v>30</v>
-      </c>
-      <c r="I23" s="62" t="n">
-        <v>2</v>
+      <c r="G23" s="61">
+        <f>SUM(G4:G21)</f>
+        <v/>
+      </c>
+      <c r="H23" s="66">
+        <f>SUM(H4:H21)</f>
+        <v/>
+      </c>
+      <c r="I23" s="65">
+        <f>SUM(I4:I21)</f>
+        <v/>
       </c>
       <c r="J23" s="27" t="n"/>
       <c r="K23" s="27" t="n"/>
-      <c r="L23" s="6" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="L23" s="6" t="n"/>
+      <c r="M23" s="6" t="n"/>
+      <c r="N23" s="6" t="n"/>
       <c r="O23" s="6" t="n"/>
       <c r="P23" s="6" t="n"/>
       <c r="Q23" s="6" t="n"/>
@@ -6477,816 +6421,11 @@
       <c r="IU23" s="6" t="n"/>
       <c r="IV23" s="6" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="24" s="4" spans="1:256">
-      <c r="A24" s="49" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" s="38" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="61" t="n"/>
-      <c r="H24" s="61" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="27" t="n"/>
-      <c r="K24" s="27" t="n"/>
-      <c r="L24" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" s="6" t="n"/>
-      <c r="P24" s="6" t="n"/>
-      <c r="Q24" s="6" t="n"/>
-      <c r="R24" s="6" t="n"/>
-      <c r="S24" s="6" t="n"/>
-      <c r="T24" s="6" t="n"/>
-      <c r="U24" s="6" t="n"/>
-      <c r="V24" s="6" t="n"/>
-      <c r="W24" s="6" t="n"/>
-      <c r="X24" s="6" t="n"/>
-      <c r="Y24" s="6" t="n"/>
-      <c r="Z24" s="6" t="n"/>
-      <c r="AA24" s="6" t="n"/>
-      <c r="AB24" s="6" t="n"/>
-      <c r="AC24" s="6" t="n"/>
-      <c r="AD24" s="6" t="n"/>
-      <c r="AE24" s="6" t="n"/>
-      <c r="AF24" s="6" t="n"/>
-      <c r="AG24" s="6" t="n"/>
-      <c r="AH24" s="6" t="n"/>
-      <c r="AI24" s="6" t="n"/>
-      <c r="AJ24" s="6" t="n"/>
-      <c r="AK24" s="6" t="n"/>
-      <c r="AL24" s="6" t="n"/>
-      <c r="AM24" s="6" t="n"/>
-      <c r="AN24" s="6" t="n"/>
-      <c r="AO24" s="6" t="n"/>
-      <c r="AP24" s="6" t="n"/>
-      <c r="AQ24" s="6" t="n"/>
-      <c r="AR24" s="6" t="n"/>
-      <c r="AS24" s="6" t="n"/>
-      <c r="AT24" s="6" t="n"/>
-      <c r="AU24" s="6" t="n"/>
-      <c r="AV24" s="6" t="n"/>
-      <c r="AW24" s="6" t="n"/>
-      <c r="AX24" s="6" t="n"/>
-      <c r="AY24" s="6" t="n"/>
-      <c r="AZ24" s="6" t="n"/>
-      <c r="BA24" s="6" t="n"/>
-      <c r="BB24" s="6" t="n"/>
-      <c r="BC24" s="6" t="n"/>
-      <c r="BD24" s="6" t="n"/>
-      <c r="BE24" s="6" t="n"/>
-      <c r="BF24" s="6" t="n"/>
-      <c r="BG24" s="6" t="n"/>
-      <c r="BH24" s="6" t="n"/>
-      <c r="BI24" s="6" t="n"/>
-      <c r="BJ24" s="6" t="n"/>
-      <c r="BK24" s="6" t="n"/>
-      <c r="BL24" s="6" t="n"/>
-      <c r="BM24" s="6" t="n"/>
-      <c r="BN24" s="6" t="n"/>
-      <c r="BO24" s="6" t="n"/>
-      <c r="BP24" s="6" t="n"/>
-      <c r="BQ24" s="6" t="n"/>
-      <c r="BR24" s="6" t="n"/>
-      <c r="BS24" s="6" t="n"/>
-      <c r="BT24" s="6" t="n"/>
-      <c r="BU24" s="6" t="n"/>
-      <c r="BV24" s="6" t="n"/>
-      <c r="BW24" s="6" t="n"/>
-      <c r="BX24" s="6" t="n"/>
-      <c r="BY24" s="6" t="n"/>
-      <c r="BZ24" s="6" t="n"/>
-      <c r="CA24" s="6" t="n"/>
-      <c r="CB24" s="6" t="n"/>
-      <c r="CC24" s="6" t="n"/>
-      <c r="CD24" s="6" t="n"/>
-      <c r="CE24" s="6" t="n"/>
-      <c r="CF24" s="6" t="n"/>
-      <c r="CG24" s="6" t="n"/>
-      <c r="CH24" s="6" t="n"/>
-      <c r="CI24" s="6" t="n"/>
-      <c r="CJ24" s="6" t="n"/>
-      <c r="CK24" s="6" t="n"/>
-      <c r="CL24" s="6" t="n"/>
-      <c r="CM24" s="6" t="n"/>
-      <c r="CN24" s="6" t="n"/>
-      <c r="CO24" s="6" t="n"/>
-      <c r="CP24" s="6" t="n"/>
-      <c r="CQ24" s="6" t="n"/>
-      <c r="CR24" s="6" t="n"/>
-      <c r="CS24" s="6" t="n"/>
-      <c r="CT24" s="6" t="n"/>
-      <c r="CU24" s="6" t="n"/>
-      <c r="CV24" s="6" t="n"/>
-      <c r="CW24" s="6" t="n"/>
-      <c r="CX24" s="6" t="n"/>
-      <c r="CY24" s="6" t="n"/>
-      <c r="CZ24" s="6" t="n"/>
-      <c r="DA24" s="6" t="n"/>
-      <c r="DB24" s="6" t="n"/>
-      <c r="DC24" s="6" t="n"/>
-      <c r="DD24" s="6" t="n"/>
-      <c r="DE24" s="6" t="n"/>
-      <c r="DF24" s="6" t="n"/>
-      <c r="DG24" s="6" t="n"/>
-      <c r="DH24" s="6" t="n"/>
-      <c r="DI24" s="6" t="n"/>
-      <c r="DJ24" s="6" t="n"/>
-      <c r="DK24" s="6" t="n"/>
-      <c r="DL24" s="6" t="n"/>
-      <c r="DM24" s="6" t="n"/>
-      <c r="DN24" s="6" t="n"/>
-      <c r="DO24" s="6" t="n"/>
-      <c r="DP24" s="6" t="n"/>
-      <c r="DQ24" s="6" t="n"/>
-      <c r="DR24" s="6" t="n"/>
-      <c r="DS24" s="6" t="n"/>
-      <c r="DT24" s="6" t="n"/>
-      <c r="DU24" s="6" t="n"/>
-      <c r="DV24" s="6" t="n"/>
-      <c r="DW24" s="6" t="n"/>
-      <c r="DX24" s="6" t="n"/>
-      <c r="DY24" s="6" t="n"/>
-      <c r="DZ24" s="6" t="n"/>
-      <c r="EA24" s="6" t="n"/>
-      <c r="EB24" s="6" t="n"/>
-      <c r="EC24" s="6" t="n"/>
-      <c r="ED24" s="6" t="n"/>
-      <c r="EE24" s="6" t="n"/>
-      <c r="EF24" s="6" t="n"/>
-      <c r="EG24" s="6" t="n"/>
-      <c r="EH24" s="6" t="n"/>
-      <c r="EI24" s="6" t="n"/>
-      <c r="EJ24" s="6" t="n"/>
-      <c r="EK24" s="6" t="n"/>
-      <c r="EL24" s="6" t="n"/>
-      <c r="EM24" s="6" t="n"/>
-      <c r="EN24" s="6" t="n"/>
-      <c r="EO24" s="6" t="n"/>
-      <c r="EP24" s="6" t="n"/>
-      <c r="EQ24" s="6" t="n"/>
-      <c r="ER24" s="6" t="n"/>
-      <c r="ES24" s="6" t="n"/>
-      <c r="ET24" s="6" t="n"/>
-      <c r="EU24" s="6" t="n"/>
-      <c r="EV24" s="6" t="n"/>
-      <c r="EW24" s="6" t="n"/>
-      <c r="EX24" s="6" t="n"/>
-      <c r="EY24" s="6" t="n"/>
-      <c r="EZ24" s="6" t="n"/>
-      <c r="FA24" s="6" t="n"/>
-      <c r="FB24" s="6" t="n"/>
-      <c r="FC24" s="6" t="n"/>
-      <c r="FD24" s="6" t="n"/>
-      <c r="FE24" s="6" t="n"/>
-      <c r="FF24" s="6" t="n"/>
-      <c r="FG24" s="6" t="n"/>
-      <c r="FH24" s="6" t="n"/>
-      <c r="FI24" s="6" t="n"/>
-      <c r="FJ24" s="6" t="n"/>
-      <c r="FK24" s="6" t="n"/>
-      <c r="FL24" s="6" t="n"/>
-      <c r="FM24" s="6" t="n"/>
-      <c r="FN24" s="6" t="n"/>
-      <c r="FO24" s="6" t="n"/>
-      <c r="FP24" s="6" t="n"/>
-      <c r="FQ24" s="6" t="n"/>
-      <c r="FR24" s="6" t="n"/>
-      <c r="FS24" s="6" t="n"/>
-      <c r="FT24" s="6" t="n"/>
-      <c r="FU24" s="6" t="n"/>
-      <c r="FV24" s="6" t="n"/>
-      <c r="FW24" s="6" t="n"/>
-      <c r="FX24" s="6" t="n"/>
-      <c r="FY24" s="6" t="n"/>
-      <c r="FZ24" s="6" t="n"/>
-      <c r="GA24" s="6" t="n"/>
-      <c r="GB24" s="6" t="n"/>
-      <c r="GC24" s="6" t="n"/>
-      <c r="GD24" s="6" t="n"/>
-      <c r="GE24" s="6" t="n"/>
-      <c r="GF24" s="6" t="n"/>
-      <c r="GG24" s="6" t="n"/>
-      <c r="GH24" s="6" t="n"/>
-      <c r="GI24" s="6" t="n"/>
-      <c r="GJ24" s="6" t="n"/>
-      <c r="GK24" s="6" t="n"/>
-      <c r="GL24" s="6" t="n"/>
-      <c r="GM24" s="6" t="n"/>
-      <c r="GN24" s="6" t="n"/>
-      <c r="GO24" s="6" t="n"/>
-      <c r="GP24" s="6" t="n"/>
-      <c r="GQ24" s="6" t="n"/>
-      <c r="GR24" s="6" t="n"/>
-      <c r="GS24" s="6" t="n"/>
-      <c r="GT24" s="6" t="n"/>
-      <c r="GU24" s="6" t="n"/>
-      <c r="GV24" s="6" t="n"/>
-      <c r="GW24" s="6" t="n"/>
-      <c r="GX24" s="6" t="n"/>
-      <c r="GY24" s="6" t="n"/>
-      <c r="GZ24" s="6" t="n"/>
-      <c r="HA24" s="6" t="n"/>
-      <c r="HB24" s="6" t="n"/>
-      <c r="HC24" s="6" t="n"/>
-      <c r="HD24" s="6" t="n"/>
-      <c r="HE24" s="6" t="n"/>
-      <c r="HF24" s="6" t="n"/>
-      <c r="HG24" s="6" t="n"/>
-      <c r="HH24" s="6" t="n"/>
-      <c r="HI24" s="6" t="n"/>
-      <c r="HJ24" s="6" t="n"/>
-      <c r="HK24" s="6" t="n"/>
-      <c r="HL24" s="6" t="n"/>
-      <c r="HM24" s="6" t="n"/>
-      <c r="HN24" s="6" t="n"/>
-      <c r="HO24" s="6" t="n"/>
-      <c r="HP24" s="6" t="n"/>
-      <c r="HQ24" s="6" t="n"/>
-      <c r="HR24" s="6" t="n"/>
-      <c r="HS24" s="6" t="n"/>
-      <c r="HT24" s="6" t="n"/>
-      <c r="HU24" s="6" t="n"/>
-      <c r="HV24" s="6" t="n"/>
-      <c r="HW24" s="6" t="n"/>
-      <c r="HX24" s="6" t="n"/>
-      <c r="HY24" s="6" t="n"/>
-      <c r="HZ24" s="6" t="n"/>
-      <c r="IA24" s="6" t="n"/>
-      <c r="IB24" s="6" t="n"/>
-      <c r="IC24" s="6" t="n"/>
-      <c r="ID24" s="6" t="n"/>
-      <c r="IE24" s="6" t="n"/>
-      <c r="IF24" s="6" t="n"/>
-      <c r="IG24" s="6" t="n"/>
-      <c r="IH24" s="6" t="n"/>
-      <c r="II24" s="6" t="n"/>
-      <c r="IJ24" s="6" t="n"/>
-      <c r="IK24" s="6" t="n"/>
-      <c r="IL24" s="6" t="n"/>
-      <c r="IM24" s="6" t="n"/>
-      <c r="IN24" s="6" t="n"/>
-      <c r="IO24" s="6" t="n"/>
-      <c r="IP24" s="6" t="n"/>
-      <c r="IQ24" s="6" t="n"/>
-      <c r="IR24" s="6" t="n"/>
-      <c r="IS24" s="6" t="n"/>
-      <c r="IT24" s="6" t="n"/>
-      <c r="IU24" s="6" t="n"/>
-      <c r="IV24" s="6" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="25" s="4" spans="1:256">
-      <c r="A25" s="49" t="n"/>
-      <c r="B25" s="41" t="n"/>
-      <c r="C25" s="42" t="n"/>
-      <c r="D25" s="49" t="n"/>
-      <c r="E25" s="49" t="n"/>
-      <c r="F25" s="43" t="n"/>
-      <c r="G25" s="61" t="n"/>
-      <c r="H25" s="64" t="n"/>
-      <c r="I25" s="65" t="n"/>
-      <c r="J25" s="27" t="n"/>
-      <c r="K25" s="27" t="n"/>
-      <c r="L25" s="6" t="n"/>
-      <c r="M25" s="6" t="n"/>
-      <c r="N25" s="6" t="n"/>
-      <c r="O25" s="6" t="n"/>
-      <c r="P25" s="6" t="n"/>
-      <c r="Q25" s="6" t="n"/>
-      <c r="R25" s="6" t="n"/>
-      <c r="S25" s="6" t="n"/>
-      <c r="T25" s="6" t="n"/>
-      <c r="U25" s="6" t="n"/>
-      <c r="V25" s="6" t="n"/>
-      <c r="W25" s="6" t="n"/>
-      <c r="X25" s="6" t="n"/>
-      <c r="Y25" s="6" t="n"/>
-      <c r="Z25" s="6" t="n"/>
-      <c r="AA25" s="6" t="n"/>
-      <c r="AB25" s="6" t="n"/>
-      <c r="AC25" s="6" t="n"/>
-      <c r="AD25" s="6" t="n"/>
-      <c r="AE25" s="6" t="n"/>
-      <c r="AF25" s="6" t="n"/>
-      <c r="AG25" s="6" t="n"/>
-      <c r="AH25" s="6" t="n"/>
-      <c r="AI25" s="6" t="n"/>
-      <c r="AJ25" s="6" t="n"/>
-      <c r="AK25" s="6" t="n"/>
-      <c r="AL25" s="6" t="n"/>
-      <c r="AM25" s="6" t="n"/>
-      <c r="AN25" s="6" t="n"/>
-      <c r="AO25" s="6" t="n"/>
-      <c r="AP25" s="6" t="n"/>
-      <c r="AQ25" s="6" t="n"/>
-      <c r="AR25" s="6" t="n"/>
-      <c r="AS25" s="6" t="n"/>
-      <c r="AT25" s="6" t="n"/>
-      <c r="AU25" s="6" t="n"/>
-      <c r="AV25" s="6" t="n"/>
-      <c r="AW25" s="6" t="n"/>
-      <c r="AX25" s="6" t="n"/>
-      <c r="AY25" s="6" t="n"/>
-      <c r="AZ25" s="6" t="n"/>
-      <c r="BA25" s="6" t="n"/>
-      <c r="BB25" s="6" t="n"/>
-      <c r="BC25" s="6" t="n"/>
-      <c r="BD25" s="6" t="n"/>
-      <c r="BE25" s="6" t="n"/>
-      <c r="BF25" s="6" t="n"/>
-      <c r="BG25" s="6" t="n"/>
-      <c r="BH25" s="6" t="n"/>
-      <c r="BI25" s="6" t="n"/>
-      <c r="BJ25" s="6" t="n"/>
-      <c r="BK25" s="6" t="n"/>
-      <c r="BL25" s="6" t="n"/>
-      <c r="BM25" s="6" t="n"/>
-      <c r="BN25" s="6" t="n"/>
-      <c r="BO25" s="6" t="n"/>
-      <c r="BP25" s="6" t="n"/>
-      <c r="BQ25" s="6" t="n"/>
-      <c r="BR25" s="6" t="n"/>
-      <c r="BS25" s="6" t="n"/>
-      <c r="BT25" s="6" t="n"/>
-      <c r="BU25" s="6" t="n"/>
-      <c r="BV25" s="6" t="n"/>
-      <c r="BW25" s="6" t="n"/>
-      <c r="BX25" s="6" t="n"/>
-      <c r="BY25" s="6" t="n"/>
-      <c r="BZ25" s="6" t="n"/>
-      <c r="CA25" s="6" t="n"/>
-      <c r="CB25" s="6" t="n"/>
-      <c r="CC25" s="6" t="n"/>
-      <c r="CD25" s="6" t="n"/>
-      <c r="CE25" s="6" t="n"/>
-      <c r="CF25" s="6" t="n"/>
-      <c r="CG25" s="6" t="n"/>
-      <c r="CH25" s="6" t="n"/>
-      <c r="CI25" s="6" t="n"/>
-      <c r="CJ25" s="6" t="n"/>
-      <c r="CK25" s="6" t="n"/>
-      <c r="CL25" s="6" t="n"/>
-      <c r="CM25" s="6" t="n"/>
-      <c r="CN25" s="6" t="n"/>
-      <c r="CO25" s="6" t="n"/>
-      <c r="CP25" s="6" t="n"/>
-      <c r="CQ25" s="6" t="n"/>
-      <c r="CR25" s="6" t="n"/>
-      <c r="CS25" s="6" t="n"/>
-      <c r="CT25" s="6" t="n"/>
-      <c r="CU25" s="6" t="n"/>
-      <c r="CV25" s="6" t="n"/>
-      <c r="CW25" s="6" t="n"/>
-      <c r="CX25" s="6" t="n"/>
-      <c r="CY25" s="6" t="n"/>
-      <c r="CZ25" s="6" t="n"/>
-      <c r="DA25" s="6" t="n"/>
-      <c r="DB25" s="6" t="n"/>
-      <c r="DC25" s="6" t="n"/>
-      <c r="DD25" s="6" t="n"/>
-      <c r="DE25" s="6" t="n"/>
-      <c r="DF25" s="6" t="n"/>
-      <c r="DG25" s="6" t="n"/>
-      <c r="DH25" s="6" t="n"/>
-      <c r="DI25" s="6" t="n"/>
-      <c r="DJ25" s="6" t="n"/>
-      <c r="DK25" s="6" t="n"/>
-      <c r="DL25" s="6" t="n"/>
-      <c r="DM25" s="6" t="n"/>
-      <c r="DN25" s="6" t="n"/>
-      <c r="DO25" s="6" t="n"/>
-      <c r="DP25" s="6" t="n"/>
-      <c r="DQ25" s="6" t="n"/>
-      <c r="DR25" s="6" t="n"/>
-      <c r="DS25" s="6" t="n"/>
-      <c r="DT25" s="6" t="n"/>
-      <c r="DU25" s="6" t="n"/>
-      <c r="DV25" s="6" t="n"/>
-      <c r="DW25" s="6" t="n"/>
-      <c r="DX25" s="6" t="n"/>
-      <c r="DY25" s="6" t="n"/>
-      <c r="DZ25" s="6" t="n"/>
-      <c r="EA25" s="6" t="n"/>
-      <c r="EB25" s="6" t="n"/>
-      <c r="EC25" s="6" t="n"/>
-      <c r="ED25" s="6" t="n"/>
-      <c r="EE25" s="6" t="n"/>
-      <c r="EF25" s="6" t="n"/>
-      <c r="EG25" s="6" t="n"/>
-      <c r="EH25" s="6" t="n"/>
-      <c r="EI25" s="6" t="n"/>
-      <c r="EJ25" s="6" t="n"/>
-      <c r="EK25" s="6" t="n"/>
-      <c r="EL25" s="6" t="n"/>
-      <c r="EM25" s="6" t="n"/>
-      <c r="EN25" s="6" t="n"/>
-      <c r="EO25" s="6" t="n"/>
-      <c r="EP25" s="6" t="n"/>
-      <c r="EQ25" s="6" t="n"/>
-      <c r="ER25" s="6" t="n"/>
-      <c r="ES25" s="6" t="n"/>
-      <c r="ET25" s="6" t="n"/>
-      <c r="EU25" s="6" t="n"/>
-      <c r="EV25" s="6" t="n"/>
-      <c r="EW25" s="6" t="n"/>
-      <c r="EX25" s="6" t="n"/>
-      <c r="EY25" s="6" t="n"/>
-      <c r="EZ25" s="6" t="n"/>
-      <c r="FA25" s="6" t="n"/>
-      <c r="FB25" s="6" t="n"/>
-      <c r="FC25" s="6" t="n"/>
-      <c r="FD25" s="6" t="n"/>
-      <c r="FE25" s="6" t="n"/>
-      <c r="FF25" s="6" t="n"/>
-      <c r="FG25" s="6" t="n"/>
-      <c r="FH25" s="6" t="n"/>
-      <c r="FI25" s="6" t="n"/>
-      <c r="FJ25" s="6" t="n"/>
-      <c r="FK25" s="6" t="n"/>
-      <c r="FL25" s="6" t="n"/>
-      <c r="FM25" s="6" t="n"/>
-      <c r="FN25" s="6" t="n"/>
-      <c r="FO25" s="6" t="n"/>
-      <c r="FP25" s="6" t="n"/>
-      <c r="FQ25" s="6" t="n"/>
-      <c r="FR25" s="6" t="n"/>
-      <c r="FS25" s="6" t="n"/>
-      <c r="FT25" s="6" t="n"/>
-      <c r="FU25" s="6" t="n"/>
-      <c r="FV25" s="6" t="n"/>
-      <c r="FW25" s="6" t="n"/>
-      <c r="FX25" s="6" t="n"/>
-      <c r="FY25" s="6" t="n"/>
-      <c r="FZ25" s="6" t="n"/>
-      <c r="GA25" s="6" t="n"/>
-      <c r="GB25" s="6" t="n"/>
-      <c r="GC25" s="6" t="n"/>
-      <c r="GD25" s="6" t="n"/>
-      <c r="GE25" s="6" t="n"/>
-      <c r="GF25" s="6" t="n"/>
-      <c r="GG25" s="6" t="n"/>
-      <c r="GH25" s="6" t="n"/>
-      <c r="GI25" s="6" t="n"/>
-      <c r="GJ25" s="6" t="n"/>
-      <c r="GK25" s="6" t="n"/>
-      <c r="GL25" s="6" t="n"/>
-      <c r="GM25" s="6" t="n"/>
-      <c r="GN25" s="6" t="n"/>
-      <c r="GO25" s="6" t="n"/>
-      <c r="GP25" s="6" t="n"/>
-      <c r="GQ25" s="6" t="n"/>
-      <c r="GR25" s="6" t="n"/>
-      <c r="GS25" s="6" t="n"/>
-      <c r="GT25" s="6" t="n"/>
-      <c r="GU25" s="6" t="n"/>
-      <c r="GV25" s="6" t="n"/>
-      <c r="GW25" s="6" t="n"/>
-      <c r="GX25" s="6" t="n"/>
-      <c r="GY25" s="6" t="n"/>
-      <c r="GZ25" s="6" t="n"/>
-      <c r="HA25" s="6" t="n"/>
-      <c r="HB25" s="6" t="n"/>
-      <c r="HC25" s="6" t="n"/>
-      <c r="HD25" s="6" t="n"/>
-      <c r="HE25" s="6" t="n"/>
-      <c r="HF25" s="6" t="n"/>
-      <c r="HG25" s="6" t="n"/>
-      <c r="HH25" s="6" t="n"/>
-      <c r="HI25" s="6" t="n"/>
-      <c r="HJ25" s="6" t="n"/>
-      <c r="HK25" s="6" t="n"/>
-      <c r="HL25" s="6" t="n"/>
-      <c r="HM25" s="6" t="n"/>
-      <c r="HN25" s="6" t="n"/>
-      <c r="HO25" s="6" t="n"/>
-      <c r="HP25" s="6" t="n"/>
-      <c r="HQ25" s="6" t="n"/>
-      <c r="HR25" s="6" t="n"/>
-      <c r="HS25" s="6" t="n"/>
-      <c r="HT25" s="6" t="n"/>
-      <c r="HU25" s="6" t="n"/>
-      <c r="HV25" s="6" t="n"/>
-      <c r="HW25" s="6" t="n"/>
-      <c r="HX25" s="6" t="n"/>
-      <c r="HY25" s="6" t="n"/>
-      <c r="HZ25" s="6" t="n"/>
-      <c r="IA25" s="6" t="n"/>
-      <c r="IB25" s="6" t="n"/>
-      <c r="IC25" s="6" t="n"/>
-      <c r="ID25" s="6" t="n"/>
-      <c r="IE25" s="6" t="n"/>
-      <c r="IF25" s="6" t="n"/>
-      <c r="IG25" s="6" t="n"/>
-      <c r="IH25" s="6" t="n"/>
-      <c r="II25" s="6" t="n"/>
-      <c r="IJ25" s="6" t="n"/>
-      <c r="IK25" s="6" t="n"/>
-      <c r="IL25" s="6" t="n"/>
-      <c r="IM25" s="6" t="n"/>
-      <c r="IN25" s="6" t="n"/>
-      <c r="IO25" s="6" t="n"/>
-      <c r="IP25" s="6" t="n"/>
-      <c r="IQ25" s="6" t="n"/>
-      <c r="IR25" s="6" t="n"/>
-      <c r="IS25" s="6" t="n"/>
-      <c r="IT25" s="6" t="n"/>
-      <c r="IU25" s="6" t="n"/>
-      <c r="IV25" s="6" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="26" s="4" spans="1:256">
-      <c r="A26" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="61">
-        <f>SUM(G4:G24)</f>
-        <v/>
-      </c>
-      <c r="H26" s="66">
-        <f>SUM(H4:H24)</f>
-        <v/>
-      </c>
-      <c r="I26" s="65">
-        <f>SUM(I4:I24)</f>
-        <v/>
-      </c>
-      <c r="J26" s="27" t="n"/>
-      <c r="K26" s="27" t="n"/>
-      <c r="L26" s="6" t="n"/>
-      <c r="M26" s="6" t="n"/>
-      <c r="N26" s="6" t="n"/>
-      <c r="O26" s="6" t="n"/>
-      <c r="P26" s="6" t="n"/>
-      <c r="Q26" s="6" t="n"/>
-      <c r="R26" s="6" t="n"/>
-      <c r="S26" s="6" t="n"/>
-      <c r="T26" s="6" t="n"/>
-      <c r="U26" s="6" t="n"/>
-      <c r="V26" s="6" t="n"/>
-      <c r="W26" s="6" t="n"/>
-      <c r="X26" s="6" t="n"/>
-      <c r="Y26" s="6" t="n"/>
-      <c r="Z26" s="6" t="n"/>
-      <c r="AA26" s="6" t="n"/>
-      <c r="AB26" s="6" t="n"/>
-      <c r="AC26" s="6" t="n"/>
-      <c r="AD26" s="6" t="n"/>
-      <c r="AE26" s="6" t="n"/>
-      <c r="AF26" s="6" t="n"/>
-      <c r="AG26" s="6" t="n"/>
-      <c r="AH26" s="6" t="n"/>
-      <c r="AI26" s="6" t="n"/>
-      <c r="AJ26" s="6" t="n"/>
-      <c r="AK26" s="6" t="n"/>
-      <c r="AL26" s="6" t="n"/>
-      <c r="AM26" s="6" t="n"/>
-      <c r="AN26" s="6" t="n"/>
-      <c r="AO26" s="6" t="n"/>
-      <c r="AP26" s="6" t="n"/>
-      <c r="AQ26" s="6" t="n"/>
-      <c r="AR26" s="6" t="n"/>
-      <c r="AS26" s="6" t="n"/>
-      <c r="AT26" s="6" t="n"/>
-      <c r="AU26" s="6" t="n"/>
-      <c r="AV26" s="6" t="n"/>
-      <c r="AW26" s="6" t="n"/>
-      <c r="AX26" s="6" t="n"/>
-      <c r="AY26" s="6" t="n"/>
-      <c r="AZ26" s="6" t="n"/>
-      <c r="BA26" s="6" t="n"/>
-      <c r="BB26" s="6" t="n"/>
-      <c r="BC26" s="6" t="n"/>
-      <c r="BD26" s="6" t="n"/>
-      <c r="BE26" s="6" t="n"/>
-      <c r="BF26" s="6" t="n"/>
-      <c r="BG26" s="6" t="n"/>
-      <c r="BH26" s="6" t="n"/>
-      <c r="BI26" s="6" t="n"/>
-      <c r="BJ26" s="6" t="n"/>
-      <c r="BK26" s="6" t="n"/>
-      <c r="BL26" s="6" t="n"/>
-      <c r="BM26" s="6" t="n"/>
-      <c r="BN26" s="6" t="n"/>
-      <c r="BO26" s="6" t="n"/>
-      <c r="BP26" s="6" t="n"/>
-      <c r="BQ26" s="6" t="n"/>
-      <c r="BR26" s="6" t="n"/>
-      <c r="BS26" s="6" t="n"/>
-      <c r="BT26" s="6" t="n"/>
-      <c r="BU26" s="6" t="n"/>
-      <c r="BV26" s="6" t="n"/>
-      <c r="BW26" s="6" t="n"/>
-      <c r="BX26" s="6" t="n"/>
-      <c r="BY26" s="6" t="n"/>
-      <c r="BZ26" s="6" t="n"/>
-      <c r="CA26" s="6" t="n"/>
-      <c r="CB26" s="6" t="n"/>
-      <c r="CC26" s="6" t="n"/>
-      <c r="CD26" s="6" t="n"/>
-      <c r="CE26" s="6" t="n"/>
-      <c r="CF26" s="6" t="n"/>
-      <c r="CG26" s="6" t="n"/>
-      <c r="CH26" s="6" t="n"/>
-      <c r="CI26" s="6" t="n"/>
-      <c r="CJ26" s="6" t="n"/>
-      <c r="CK26" s="6" t="n"/>
-      <c r="CL26" s="6" t="n"/>
-      <c r="CM26" s="6" t="n"/>
-      <c r="CN26" s="6" t="n"/>
-      <c r="CO26" s="6" t="n"/>
-      <c r="CP26" s="6" t="n"/>
-      <c r="CQ26" s="6" t="n"/>
-      <c r="CR26" s="6" t="n"/>
-      <c r="CS26" s="6" t="n"/>
-      <c r="CT26" s="6" t="n"/>
-      <c r="CU26" s="6" t="n"/>
-      <c r="CV26" s="6" t="n"/>
-      <c r="CW26" s="6" t="n"/>
-      <c r="CX26" s="6" t="n"/>
-      <c r="CY26" s="6" t="n"/>
-      <c r="CZ26" s="6" t="n"/>
-      <c r="DA26" s="6" t="n"/>
-      <c r="DB26" s="6" t="n"/>
-      <c r="DC26" s="6" t="n"/>
-      <c r="DD26" s="6" t="n"/>
-      <c r="DE26" s="6" t="n"/>
-      <c r="DF26" s="6" t="n"/>
-      <c r="DG26" s="6" t="n"/>
-      <c r="DH26" s="6" t="n"/>
-      <c r="DI26" s="6" t="n"/>
-      <c r="DJ26" s="6" t="n"/>
-      <c r="DK26" s="6" t="n"/>
-      <c r="DL26" s="6" t="n"/>
-      <c r="DM26" s="6" t="n"/>
-      <c r="DN26" s="6" t="n"/>
-      <c r="DO26" s="6" t="n"/>
-      <c r="DP26" s="6" t="n"/>
-      <c r="DQ26" s="6" t="n"/>
-      <c r="DR26" s="6" t="n"/>
-      <c r="DS26" s="6" t="n"/>
-      <c r="DT26" s="6" t="n"/>
-      <c r="DU26" s="6" t="n"/>
-      <c r="DV26" s="6" t="n"/>
-      <c r="DW26" s="6" t="n"/>
-      <c r="DX26" s="6" t="n"/>
-      <c r="DY26" s="6" t="n"/>
-      <c r="DZ26" s="6" t="n"/>
-      <c r="EA26" s="6" t="n"/>
-      <c r="EB26" s="6" t="n"/>
-      <c r="EC26" s="6" t="n"/>
-      <c r="ED26" s="6" t="n"/>
-      <c r="EE26" s="6" t="n"/>
-      <c r="EF26" s="6" t="n"/>
-      <c r="EG26" s="6" t="n"/>
-      <c r="EH26" s="6" t="n"/>
-      <c r="EI26" s="6" t="n"/>
-      <c r="EJ26" s="6" t="n"/>
-      <c r="EK26" s="6" t="n"/>
-      <c r="EL26" s="6" t="n"/>
-      <c r="EM26" s="6" t="n"/>
-      <c r="EN26" s="6" t="n"/>
-      <c r="EO26" s="6" t="n"/>
-      <c r="EP26" s="6" t="n"/>
-      <c r="EQ26" s="6" t="n"/>
-      <c r="ER26" s="6" t="n"/>
-      <c r="ES26" s="6" t="n"/>
-      <c r="ET26" s="6" t="n"/>
-      <c r="EU26" s="6" t="n"/>
-      <c r="EV26" s="6" t="n"/>
-      <c r="EW26" s="6" t="n"/>
-      <c r="EX26" s="6" t="n"/>
-      <c r="EY26" s="6" t="n"/>
-      <c r="EZ26" s="6" t="n"/>
-      <c r="FA26" s="6" t="n"/>
-      <c r="FB26" s="6" t="n"/>
-      <c r="FC26" s="6" t="n"/>
-      <c r="FD26" s="6" t="n"/>
-      <c r="FE26" s="6" t="n"/>
-      <c r="FF26" s="6" t="n"/>
-      <c r="FG26" s="6" t="n"/>
-      <c r="FH26" s="6" t="n"/>
-      <c r="FI26" s="6" t="n"/>
-      <c r="FJ26" s="6" t="n"/>
-      <c r="FK26" s="6" t="n"/>
-      <c r="FL26" s="6" t="n"/>
-      <c r="FM26" s="6" t="n"/>
-      <c r="FN26" s="6" t="n"/>
-      <c r="FO26" s="6" t="n"/>
-      <c r="FP26" s="6" t="n"/>
-      <c r="FQ26" s="6" t="n"/>
-      <c r="FR26" s="6" t="n"/>
-      <c r="FS26" s="6" t="n"/>
-      <c r="FT26" s="6" t="n"/>
-      <c r="FU26" s="6" t="n"/>
-      <c r="FV26" s="6" t="n"/>
-      <c r="FW26" s="6" t="n"/>
-      <c r="FX26" s="6" t="n"/>
-      <c r="FY26" s="6" t="n"/>
-      <c r="FZ26" s="6" t="n"/>
-      <c r="GA26" s="6" t="n"/>
-      <c r="GB26" s="6" t="n"/>
-      <c r="GC26" s="6" t="n"/>
-      <c r="GD26" s="6" t="n"/>
-      <c r="GE26" s="6" t="n"/>
-      <c r="GF26" s="6" t="n"/>
-      <c r="GG26" s="6" t="n"/>
-      <c r="GH26" s="6" t="n"/>
-      <c r="GI26" s="6" t="n"/>
-      <c r="GJ26" s="6" t="n"/>
-      <c r="GK26" s="6" t="n"/>
-      <c r="GL26" s="6" t="n"/>
-      <c r="GM26" s="6" t="n"/>
-      <c r="GN26" s="6" t="n"/>
-      <c r="GO26" s="6" t="n"/>
-      <c r="GP26" s="6" t="n"/>
-      <c r="GQ26" s="6" t="n"/>
-      <c r="GR26" s="6" t="n"/>
-      <c r="GS26" s="6" t="n"/>
-      <c r="GT26" s="6" t="n"/>
-      <c r="GU26" s="6" t="n"/>
-      <c r="GV26" s="6" t="n"/>
-      <c r="GW26" s="6" t="n"/>
-      <c r="GX26" s="6" t="n"/>
-      <c r="GY26" s="6" t="n"/>
-      <c r="GZ26" s="6" t="n"/>
-      <c r="HA26" s="6" t="n"/>
-      <c r="HB26" s="6" t="n"/>
-      <c r="HC26" s="6" t="n"/>
-      <c r="HD26" s="6" t="n"/>
-      <c r="HE26" s="6" t="n"/>
-      <c r="HF26" s="6" t="n"/>
-      <c r="HG26" s="6" t="n"/>
-      <c r="HH26" s="6" t="n"/>
-      <c r="HI26" s="6" t="n"/>
-      <c r="HJ26" s="6" t="n"/>
-      <c r="HK26" s="6" t="n"/>
-      <c r="HL26" s="6" t="n"/>
-      <c r="HM26" s="6" t="n"/>
-      <c r="HN26" s="6" t="n"/>
-      <c r="HO26" s="6" t="n"/>
-      <c r="HP26" s="6" t="n"/>
-      <c r="HQ26" s="6" t="n"/>
-      <c r="HR26" s="6" t="n"/>
-      <c r="HS26" s="6" t="n"/>
-      <c r="HT26" s="6" t="n"/>
-      <c r="HU26" s="6" t="n"/>
-      <c r="HV26" s="6" t="n"/>
-      <c r="HW26" s="6" t="n"/>
-      <c r="HX26" s="6" t="n"/>
-      <c r="HY26" s="6" t="n"/>
-      <c r="HZ26" s="6" t="n"/>
-      <c r="IA26" s="6" t="n"/>
-      <c r="IB26" s="6" t="n"/>
-      <c r="IC26" s="6" t="n"/>
-      <c r="ID26" s="6" t="n"/>
-      <c r="IE26" s="6" t="n"/>
-      <c r="IF26" s="6" t="n"/>
-      <c r="IG26" s="6" t="n"/>
-      <c r="IH26" s="6" t="n"/>
-      <c r="II26" s="6" t="n"/>
-      <c r="IJ26" s="6" t="n"/>
-      <c r="IK26" s="6" t="n"/>
-      <c r="IL26" s="6" t="n"/>
-      <c r="IM26" s="6" t="n"/>
-      <c r="IN26" s="6" t="n"/>
-      <c r="IO26" s="6" t="n"/>
-      <c r="IP26" s="6" t="n"/>
-      <c r="IQ26" s="6" t="n"/>
-      <c r="IR26" s="6" t="n"/>
-      <c r="IS26" s="6" t="n"/>
-      <c r="IT26" s="6" t="n"/>
-      <c r="IU26" s="6" t="n"/>
-      <c r="IV26" s="6" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins bottom="0.979166666666667" footer="0.509027777777778" header="0.509027777777778" left="0.75" right="0.75" top="0.979166666666667"/>
   <pageSetup orientation="portrait" paperSize="9" scale="75"/>
@@ -7573,21 +6712,21 @@
     </row>
     <row customFormat="1" customHeight="1" ht="21" r="2" s="4" spans="1:256">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="13" t="n"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G2" s="67" t="n"/>
       <c r="H2" s="67" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="6" t="n"/>
       <c r="K2" s="6" t="n"/>
@@ -7883,7 +7022,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>19</v>
@@ -7911,7 +7050,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="49" t="s">
         <v>19</v>
@@ -7939,7 +7078,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="49" t="s">
         <v>19</v>
@@ -7955,10 +7094,10 @@
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="7" s="4" spans="1:256">
       <c r="A7" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="61">
         <f>SUM(G4:G6)</f>
@@ -8768,1215 +7907,1215 @@
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row customFormat="1" hidden="1" r="2" s="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F2" s="1" t="s"/>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="3" s="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F3" s="1" t="s"/>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s"/>
     </row>
     <row customFormat="1" r="4" s="2" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F4" s="2" t="s"/>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="5" s="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F5" s="1" t="s"/>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="6" s="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F6" s="1" t="s"/>
       <c r="G6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="7" s="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F7" s="1" t="s"/>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="8" s="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="1" t="s"/>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s"/>
     </row>
     <row customFormat="1" r="9" s="2" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F9" s="2" t="s"/>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="10" s="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="1" t="s"/>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s"/>
     </row>
     <row customFormat="1" r="11" s="2" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>42586.875462963</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s"/>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="12" s="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="1" t="s"/>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s"/>
     </row>
     <row customFormat="1" r="13" s="2" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F13" s="2" t="s"/>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="14" s="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F14" s="1" t="s"/>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s"/>
     </row>
     <row customFormat="1" r="15" s="2" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F15" s="2" t="s"/>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="16" s="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="1" t="s"/>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="17" s="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F17" s="1" t="s"/>
       <c r="G17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17" s="1" t="s"/>
     </row>
     <row customFormat="1" r="18" s="2" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>42591.8414930556</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s"/>
       <c r="G18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H18" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="19" s="1" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F19" s="1" t="s"/>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s"/>
     </row>
     <row customFormat="1" r="20" s="2" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F20" s="2" t="s"/>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H20" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="21" s="1" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F21" s="1" t="s"/>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="22" s="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F22" s="1" t="s"/>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="23" s="1" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F23" s="1" t="s"/>
       <c r="G23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H23" s="1" t="s"/>
     </row>
     <row customFormat="1" r="24" s="2" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>42593.8472569444</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s"/>
       <c r="G24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H24" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="25" s="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F25" s="1" t="s"/>
       <c r="G25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H25" s="1" t="s"/>
     </row>
     <row customFormat="1" r="26" s="2" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F26" s="2" t="s"/>
       <c r="G26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H26" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="27" s="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F27" s="1" t="s"/>
       <c r="G27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="1" t="s"/>
     </row>
     <row customFormat="1" r="28" s="2" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F28" s="2" t="s"/>
       <c r="G28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H28" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="29" s="1" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F29" s="1" t="s"/>
       <c r="G29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H29" s="1" t="s"/>
     </row>
     <row customFormat="1" r="30" s="2" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F30" s="2" t="s"/>
       <c r="G30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H30" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="31" s="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F31" s="1" t="s"/>
       <c r="G31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H31" s="1" t="s"/>
     </row>
     <row customFormat="1" r="32" s="2" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F32" s="2" t="s"/>
       <c r="G32" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H32" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="33" s="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F33" s="1" t="s"/>
       <c r="G33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H33" s="1" t="s"/>
     </row>
     <row customFormat="1" r="34" s="2" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F34" s="2" t="s"/>
       <c r="G34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H34" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="35" s="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F35" s="1" t="s"/>
       <c r="G35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1" t="s"/>
     </row>
     <row customFormat="1" r="36" s="2" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F36" s="2" t="s"/>
       <c r="G36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H36" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="37" s="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F37" s="1" t="s"/>
       <c r="G37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H37" s="1" t="s"/>
     </row>
     <row customFormat="1" r="38" s="2" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F38" s="2" t="s"/>
       <c r="G38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H38" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="39" s="1" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F39" s="1" t="s"/>
       <c r="G39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H39" s="1" t="s"/>
     </row>
     <row customFormat="1" r="40" s="2" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F40" s="2" t="s"/>
       <c r="G40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H40" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="41" s="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F41" s="1" t="s"/>
       <c r="G41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H41" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="42" s="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F42" s="1" t="s"/>
       <c r="G42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H42" s="1" t="s"/>
     </row>
     <row customFormat="1" r="43" s="2" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F43" s="2" t="s"/>
       <c r="G43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H43" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="44" s="1" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F44" s="1" t="s"/>
       <c r="G44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H44" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="45" s="1" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F45" s="1" t="s"/>
       <c r="G45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H45" s="1" t="s"/>
     </row>
     <row customFormat="1" r="46" s="2" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F46" s="2" t="s"/>
       <c r="G46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H46" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="47" s="1" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F47" s="1" t="s"/>
       <c r="G47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H47" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="48" s="1" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F48" s="1" t="s"/>
       <c r="G48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H48" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="49" s="1" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F49" s="1" t="s"/>
       <c r="G49" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H49" s="1" t="s"/>
     </row>
     <row customFormat="1" r="50" s="2" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F50" s="2" t="s"/>
       <c r="G50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H50" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="51" s="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F51" s="1" t="s"/>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H51" s="1" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="52" s="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F52" s="1" t="s"/>
       <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H52" s="1" t="s"/>
     </row>
     <row customFormat="1" r="53" s="2" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F53" s="2" t="s"/>
       <c r="G53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H53" s="2" t="s"/>
     </row>
     <row customFormat="1" hidden="1" r="54" s="1" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F54" s="1" t="s"/>
       <c r="G54" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H54" s="1" t="s"/>
     </row>
     <row customFormat="1" r="55" s="2" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F55" s="2" t="s"/>
       <c r="G55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H55" s="2" t="s"/>
     </row>
